--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3782.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3782.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.819249305088926</v>
+        <v>3.590104341506958</v>
       </c>
       <c r="B1">
-        <v>2.5742587101371</v>
+        <v>4.080108642578125</v>
       </c>
       <c r="C1">
-        <v>2.810565174365851</v>
+        <v>3.335054874420166</v>
       </c>
       <c r="D1">
-        <v>3.346260359346866</v>
+        <v>3.149731397628784</v>
       </c>
       <c r="E1">
-        <v>2.757195257986521</v>
+        <v>1.776500821113586</v>
       </c>
     </row>
   </sheetData>
